--- a/keystoneSurvival/src/db/situationRef.xlsx
+++ b/keystoneSurvival/src/db/situationRef.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Projects\KeystoneSurvival\keystoneSurvival\src\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{201AD84C-EE64-406C-9254-3C498EA444B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719E4770-3EC0-435E-8BC2-1B127A0CA4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="situationRef" sheetId="1" r:id="rId1"/>
+    <sheet name="SR" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="125">
   <si>
     <t>Event</t>
   </si>
@@ -392,6 +406,9 @@
   </si>
   <si>
     <t>In comparison, the Sahara looks like the Pacific. What do you do?</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -423,7 +440,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -444,11 +461,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -456,11 +571,293 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -490,23 +887,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -521,11 +901,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FEF6669-9A51-4BE0-ACAD-CB3B62518D3A}" name="Table1" displayName="Table1" ref="A1:L17" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1FEF6669-9A51-4BE0-ACAD-CB3B62518D3A}" name="Table1" displayName="Table1" ref="A1:L17" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
   <autoFilter ref="A1:L17" xr:uid="{1FEF6669-9A51-4BE0-ACAD-CB3B62518D3A}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B5955C7F-EE6B-49C1-9CAA-5036E6BB7821}" name="Event"/>
-    <tableColumn id="2" xr3:uid="{E2E97CAA-664D-4634-974B-C6D6DCCD54A5}" name="Prompt" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{E2E97CAA-664D-4634-974B-C6D6DCCD54A5}" name="Prompt" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{1813BCC4-C4AD-4B01-868E-41B7D8B466F0}" name="Action 1"/>
     <tableColumn id="4" xr3:uid="{9DB13561-EC49-4C61-BC8F-514BB3EB1247}" name="Success Rate 1"/>
     <tableColumn id="5" xr3:uid="{959E28D3-898B-4E9A-ACBB-C01E88342721}" name="Action 2"/>
@@ -538,6 +918,24 @@
     <tableColumn id="12" xr3:uid="{EE989B4F-98D4-4333-B9F4-7C23F1A8D8A8}" name="Success Rate 5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{77697F1E-0077-49B9-881F-A5E29A33BCC3}" name="Table3" displayName="Table3" ref="A1:F18" totalsRowCount="1" headerRowDxfId="7" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:F17" xr:uid="{77697F1E-0077-49B9-881F-A5E29A33BCC3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{7D82F1DE-F7AC-46C5-B6FB-E26DDF284A0C}" name="Success Rate 1" dataDxfId="12" totalsRowDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3B32DFD9-BFBB-4AE7-BDC8-8AD07B0AC3E0}" name="Success Rate 2" dataDxfId="11" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4DCD275B-735D-4AE4-BCF3-D6AAC2D7618D}" name="Success Rate 3" dataDxfId="10" totalsRowDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{562175BD-A056-4157-9ADA-F6705708A31A}" name="Success Rate 4" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{6D263853-0200-4483-B3EF-3B05CFD83F20}" name="Success Rate 5" dataDxfId="8" totalsRowDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{1C79B59E-564D-42C4-B7FF-F06DD39F132E}" name="Average" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="0">
+      <calculatedColumnFormula>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(Table3[Average])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -828,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1496,6 +1894,428 @@
         <v>70</v>
       </c>
     </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D20">
+        <f>MAX(Table1[Success Rate 1],Table1[Success Rate 2],Table1[Success Rate 3],Table1[Success Rate 4],Table1[Success Rate 5])</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <f>MIN(Table1[Success Rate 1],Table1[Success Rate 2],Table1[Success Rate 3],Table1[Success Rate 4],Table1[Success Rate 5])</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <f>MEDIAN(Table1[Success Rate 1],Table1[Success Rate 2],Table1[Success Rate 3],Table1[Success Rate 4],Table1[Success Rate 5])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D23">
+        <f>AVERAGE(Table1[Success Rate 1],Table1[Success Rate 2],Table1[Success Rate 3],Table1[Success Rate 4],Table1[Success Rate 5])</f>
+        <v>74.125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <f>AVERAGE(Table1[Success Rate 1],Table1[Success Rate 2],Table1[Success Rate 3],Table1[Success Rate 4],Table1[Success Rate 5])</f>
+        <v>74.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FD6432-AF9A-4727-8B42-B816A6EC44DB}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="14.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>90</v>
+      </c>
+      <c r="B2" s="7">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7">
+        <v>30</v>
+      </c>
+      <c r="D2" s="7">
+        <v>85</v>
+      </c>
+      <c r="E2" s="8">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>95</v>
+      </c>
+      <c r="B3" s="7">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7">
+        <v>40</v>
+      </c>
+      <c r="D3" s="7">
+        <v>85</v>
+      </c>
+      <c r="E3" s="8">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>64</v>
+      </c>
+      <c r="I3">
+        <f>MEDIAN(Table3[[Success Rate 1]:[Success Rate 5]])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>90</v>
+      </c>
+      <c r="B4" s="7">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="7">
+        <v>30</v>
+      </c>
+      <c r="E4" s="8">
+        <v>85</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>85</v>
+      </c>
+      <c r="B5" s="7">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7">
+        <v>50</v>
+      </c>
+      <c r="D5" s="7">
+        <v>40</v>
+      </c>
+      <c r="E5" s="8">
+        <v>80</v>
+      </c>
+      <c r="F5" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>95</v>
+      </c>
+      <c r="B6" s="7">
+        <v>85</v>
+      </c>
+      <c r="C6" s="7">
+        <v>80</v>
+      </c>
+      <c r="D6" s="7">
+        <v>90</v>
+      </c>
+      <c r="E6" s="8">
+        <v>75</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>90</v>
+      </c>
+      <c r="B7" s="7">
+        <v>80</v>
+      </c>
+      <c r="C7" s="7">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7">
+        <v>85</v>
+      </c>
+      <c r="E7" s="8">
+        <v>70</v>
+      </c>
+      <c r="F7" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>80</v>
+      </c>
+      <c r="B8" s="7">
+        <v>85</v>
+      </c>
+      <c r="C8" s="7">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7">
+        <v>75</v>
+      </c>
+      <c r="E8" s="8">
+        <v>65</v>
+      </c>
+      <c r="F8" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>75</v>
+      </c>
+      <c r="B9" s="7">
+        <v>85</v>
+      </c>
+      <c r="C9" s="7">
+        <v>50</v>
+      </c>
+      <c r="D9" s="7">
+        <v>80</v>
+      </c>
+      <c r="E9" s="8">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>90</v>
+      </c>
+      <c r="B10" s="7">
+        <v>85</v>
+      </c>
+      <c r="C10" s="7">
+        <v>80</v>
+      </c>
+      <c r="D10" s="7">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8">
+        <v>70</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>85</v>
+      </c>
+      <c r="B11" s="7">
+        <v>80</v>
+      </c>
+      <c r="C11" s="7">
+        <v>75</v>
+      </c>
+      <c r="D11" s="7">
+        <v>90</v>
+      </c>
+      <c r="E11" s="8">
+        <v>85</v>
+      </c>
+      <c r="F11" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>85</v>
+      </c>
+      <c r="B12" s="7">
+        <v>75</v>
+      </c>
+      <c r="C12" s="7">
+        <v>90</v>
+      </c>
+      <c r="D12" s="7">
+        <v>80</v>
+      </c>
+      <c r="E12" s="8">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>85</v>
+      </c>
+      <c r="B13" s="7">
+        <v>80</v>
+      </c>
+      <c r="C13" s="7">
+        <v>90</v>
+      </c>
+      <c r="D13" s="7">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>80</v>
+      </c>
+      <c r="B14" s="7">
+        <v>85</v>
+      </c>
+      <c r="C14" s="7">
+        <v>75</v>
+      </c>
+      <c r="D14" s="7">
+        <v>70</v>
+      </c>
+      <c r="E14" s="8">
+        <v>90</v>
+      </c>
+      <c r="F14" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>85</v>
+      </c>
+      <c r="B15" s="7">
+        <v>60</v>
+      </c>
+      <c r="C15" s="7">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7">
+        <v>80</v>
+      </c>
+      <c r="E15" s="8">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
+        <v>80</v>
+      </c>
+      <c r="B16" s="7">
+        <v>75</v>
+      </c>
+      <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>85</v>
+      </c>
+      <c r="E16" s="8">
+        <v>70</v>
+      </c>
+      <c r="F16" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9">
+        <v>85</v>
+      </c>
+      <c r="B17" s="10">
+        <v>90</v>
+      </c>
+      <c r="C17" s="10">
+        <v>75</v>
+      </c>
+      <c r="D17" s="10">
+        <v>80</v>
+      </c>
+      <c r="E17" s="11">
+        <v>70</v>
+      </c>
+      <c r="F17" s="4">
+        <f>AVERAGE(Table3[[#This Row],[Success Rate 1]:[Success Rate 5]])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
+        <f>AVERAGE(Table3[Average])</f>
+        <v>74.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
